--- a/Code/Results/Cases/Case_3_176/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_176/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.011380160627588</v>
+        <v>1.044227090051403</v>
       </c>
       <c r="D2">
-        <v>1.025828486613448</v>
+        <v>1.046391740782104</v>
       </c>
       <c r="E2">
-        <v>1.015869834115039</v>
+        <v>1.042091236798147</v>
       </c>
       <c r="F2">
-        <v>0.9704162039008647</v>
+        <v>1.046729152420632</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04381744111593</v>
+        <v>1.042330235191239</v>
       </c>
       <c r="J2">
-        <v>1.033225740314064</v>
+        <v>1.049293306182361</v>
       </c>
       <c r="K2">
-        <v>1.036939345165264</v>
+        <v>1.049157306662782</v>
       </c>
       <c r="L2">
-        <v>1.027112417177106</v>
+        <v>1.044868904457935</v>
       </c>
       <c r="M2">
-        <v>0.9823036757184889</v>
+        <v>1.049493773375442</v>
       </c>
       <c r="N2">
-        <v>1.034693039377959</v>
+        <v>1.050783423032765</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.017527026903581</v>
+        <v>1.045429885780342</v>
       </c>
       <c r="D3">
-        <v>1.030661939684197</v>
+        <v>1.04734340325694</v>
       </c>
       <c r="E3">
-        <v>1.02094002822151</v>
+        <v>1.043124335188844</v>
       </c>
       <c r="F3">
-        <v>0.9830251839548915</v>
+        <v>1.049059953381884</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04638830961843</v>
+        <v>1.042747866469422</v>
       </c>
       <c r="J3">
-        <v>1.037551029414738</v>
+        <v>1.050142017139511</v>
       </c>
       <c r="K3">
-        <v>1.040916969240578</v>
+        <v>1.049920238418817</v>
       </c>
       <c r="L3">
-        <v>1.031311808765406</v>
+        <v>1.045712180833857</v>
       </c>
       <c r="M3">
-        <v>0.993879969178611</v>
+        <v>1.051632336226778</v>
       </c>
       <c r="N3">
-        <v>1.039024470885273</v>
+        <v>1.051633339256823</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.021389433550829</v>
+        <v>1.046207295623237</v>
       </c>
       <c r="D4">
-        <v>1.033698872596281</v>
+        <v>1.047958293717829</v>
       </c>
       <c r="E4">
-        <v>1.024130973607958</v>
+        <v>1.043792298178111</v>
       </c>
       <c r="F4">
-        <v>0.9908157427775038</v>
+        <v>1.050562202015509</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047985896242856</v>
+        <v>1.043016144008523</v>
       </c>
       <c r="J4">
-        <v>1.040261381560497</v>
+        <v>1.050689794832782</v>
       </c>
       <c r="K4">
-        <v>1.043406907423509</v>
+        <v>1.050412388574341</v>
       </c>
       <c r="L4">
-        <v>1.033946627765253</v>
+        <v>1.046256715367234</v>
       </c>
       <c r="M4">
-        <v>1.001026292317181</v>
+        <v>1.053009889743201</v>
       </c>
       <c r="N4">
-        <v>1.041738672041961</v>
+        <v>1.052181894857248</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.022987229940893</v>
+        <v>1.046533912456415</v>
       </c>
       <c r="D5">
-        <v>1.034955140325798</v>
+        <v>1.048216581630115</v>
       </c>
       <c r="E5">
-        <v>1.025452163205636</v>
+        <v>1.044072988119318</v>
       </c>
       <c r="F5">
-        <v>0.9940105199812506</v>
+        <v>1.051192362594497</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048642638896307</v>
+        <v>1.043128462006152</v>
       </c>
       <c r="J5">
-        <v>1.041380835483462</v>
+        <v>1.050919749873429</v>
       </c>
       <c r="K5">
-        <v>1.044434729848691</v>
+        <v>1.050618928286177</v>
       </c>
       <c r="L5">
-        <v>1.035035659255473</v>
+        <v>1.04648537204913</v>
       </c>
       <c r="M5">
-        <v>1.003955344247297</v>
+        <v>1.053587553287666</v>
       </c>
       <c r="N5">
-        <v>1.0428597157179</v>
+        <v>1.05241217646043</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.023254027679114</v>
+        <v>1.046588740887692</v>
       </c>
       <c r="D6">
-        <v>1.035164907100256</v>
+        <v>1.048259936963423</v>
       </c>
       <c r="E6">
-        <v>1.025672840385153</v>
+        <v>1.044120110144567</v>
       </c>
       <c r="F6">
-        <v>0.99454243018535</v>
+        <v>1.05129808916912</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048752060440084</v>
+        <v>1.04314729345418</v>
       </c>
       <c r="J6">
-        <v>1.041567657325674</v>
+        <v>1.050958341038499</v>
       </c>
       <c r="K6">
-        <v>1.04460622515969</v>
+        <v>1.050653586179627</v>
       </c>
       <c r="L6">
-        <v>1.035217448768408</v>
+        <v>1.046523749018524</v>
       </c>
       <c r="M6">
-        <v>1.004442921159037</v>
+        <v>1.053684460900404</v>
       </c>
       <c r="N6">
-        <v>1.043046802868557</v>
+        <v>1.052450822429381</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.021410883416848</v>
+        <v>1.046211660697682</v>
       </c>
       <c r="D7">
-        <v>1.033715737754367</v>
+        <v>1.047961745802171</v>
       </c>
       <c r="E7">
-        <v>1.024148705592043</v>
+        <v>1.043796049244693</v>
       </c>
       <c r="F7">
-        <v>0.9908587378801734</v>
+        <v>1.050570627644511</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047994729033822</v>
+        <v>1.043017646633726</v>
       </c>
       <c r="J7">
-        <v>1.040276416784829</v>
+        <v>1.050692868798009</v>
       </c>
       <c r="K7">
-        <v>1.043420714288543</v>
+        <v>1.050415149778985</v>
       </c>
       <c r="L7">
-        <v>1.033961251359282</v>
+        <v>1.046259771728579</v>
       </c>
       <c r="M7">
-        <v>1.001065717464134</v>
+        <v>1.05301761420295</v>
       </c>
       <c r="N7">
-        <v>1.041753728618037</v>
+        <v>1.052184973187859</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.013482342887425</v>
+        <v>1.044633765173786</v>
       </c>
       <c r="D8">
-        <v>1.027481530927701</v>
+        <v>1.046713547574071</v>
       </c>
       <c r="E8">
-        <v>1.017602699340076</v>
+        <v>1.042440486860529</v>
       </c>
       <c r="F8">
-        <v>0.9747587945536867</v>
+        <v>1.047518108430264</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044700509832704</v>
+        <v>1.042471782730781</v>
       </c>
       <c r="J8">
-        <v>1.03470655087524</v>
+        <v>1.049580422862132</v>
       </c>
       <c r="K8">
-        <v>1.038301682554088</v>
+        <v>1.049415459168707</v>
       </c>
       <c r="L8">
-        <v>1.028549395253149</v>
+        <v>1.045154127660173</v>
       </c>
       <c r="M8">
-        <v>0.9862918886471306</v>
+        <v>1.050217823162451</v>
       </c>
       <c r="N8">
-        <v>1.036175952859983</v>
+        <v>1.051070947451153</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9985493534535967</v>
+        <v>1.041846382980668</v>
       </c>
       <c r="D9">
-        <v>1.015737862186365</v>
+        <v>1.044507036419624</v>
       </c>
       <c r="E9">
-        <v>1.005317438024368</v>
+        <v>1.040047689393825</v>
       </c>
       <c r="F9">
-        <v>0.9431428381487493</v>
+        <v>1.042092080690332</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038343226837254</v>
+        <v>1.041494777817012</v>
       </c>
       <c r="J9">
-        <v>1.024153441992482</v>
+        <v>1.047609317860638</v>
       </c>
       <c r="K9">
-        <v>1.028580661521914</v>
+        <v>1.047642110614726</v>
       </c>
       <c r="L9">
-        <v>1.018324828621912</v>
+        <v>1.043197119379714</v>
       </c>
       <c r="M9">
-        <v>0.9572310538681792</v>
+        <v>1.045234912552862</v>
       </c>
       <c r="N9">
-        <v>1.025607857352153</v>
+        <v>1.049097043254469</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.987813879261763</v>
+        <v>1.039983195159899</v>
       </c>
       <c r="D10">
-        <v>1.007292184351986</v>
+        <v>1.043031100895397</v>
       </c>
       <c r="E10">
-        <v>0.9965192721793948</v>
+        <v>1.038449525719662</v>
       </c>
       <c r="F10">
-        <v>0.919125257695347</v>
+        <v>1.038440748977858</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033652770591037</v>
+        <v>1.040833090960958</v>
       </c>
       <c r="J10">
-        <v>1.016519471599245</v>
+        <v>1.046287752385722</v>
       </c>
       <c r="K10">
-        <v>1.021531012653002</v>
+        <v>1.046451764845028</v>
       </c>
       <c r="L10">
-        <v>1.010951657923453</v>
+        <v>1.041886395196169</v>
       </c>
       <c r="M10">
-        <v>0.9351262521789634</v>
+        <v>1.041877649649973</v>
       </c>
       <c r="N10">
-        <v>1.017963045845329</v>
+        <v>1.047773601004992</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9829424004073758</v>
+        <v>1.039175181836479</v>
       </c>
       <c r="D11">
-        <v>1.003458061895497</v>
+        <v>1.042390788923776</v>
       </c>
       <c r="E11">
-        <v>0.9925358209207866</v>
+        <v>1.037756755607229</v>
       </c>
       <c r="F11">
-        <v>0.9077889896341267</v>
+        <v>1.036851102038168</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03149046054637</v>
+        <v>1.040544076829087</v>
       </c>
       <c r="J11">
-        <v>1.013042424978041</v>
+        <v>1.045713673772669</v>
       </c>
       <c r="K11">
-        <v>1.018315057562777</v>
+        <v>1.04593436133139</v>
       </c>
       <c r="L11">
-        <v>1.007599887012297</v>
+        <v>1.041317358771514</v>
       </c>
       <c r="M11">
-        <v>0.9246879370520339</v>
+        <v>1.040415053281613</v>
       </c>
       <c r="N11">
-        <v>1.0144810614191</v>
+        <v>1.047198707134462</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9810953480160799</v>
+        <v>1.038874857807975</v>
       </c>
       <c r="D12">
-        <v>1.002003926015549</v>
+        <v>1.042152760780297</v>
       </c>
       <c r="E12">
-        <v>0.9910268828901869</v>
+        <v>1.037499312621093</v>
       </c>
       <c r="F12">
-        <v>0.903409386331212</v>
+        <v>1.036259299727287</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030664861991106</v>
+        <v>1.040436344945706</v>
       </c>
       <c r="J12">
-        <v>1.011721909940953</v>
+        <v>1.045500155885091</v>
       </c>
       <c r="K12">
-        <v>1.017092834405947</v>
+        <v>1.045741873661718</v>
       </c>
       <c r="L12">
-        <v>1.006328036720475</v>
+        <v>1.04110576650697</v>
       </c>
       <c r="M12">
-        <v>0.9206547337906661</v>
+        <v>1.039870403601307</v>
       </c>
       <c r="N12">
-        <v>1.013158671099194</v>
+        <v>1.046984886026991</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9814933225560436</v>
+        <v>1.038939287104717</v>
       </c>
       <c r="D13">
-        <v>1.002317262371362</v>
+        <v>1.042203827189371</v>
       </c>
       <c r="E13">
-        <v>0.9913519408993633</v>
+        <v>1.037554540388417</v>
       </c>
       <c r="F13">
-        <v>0.9043570122166954</v>
+        <v>1.03638630455214</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030843021326299</v>
+        <v>1.040459471017984</v>
       </c>
       <c r="J13">
-        <v>1.012006536779208</v>
+        <v>1.045545968915618</v>
       </c>
       <c r="K13">
-        <v>1.017356316349401</v>
+        <v>1.045783176606288</v>
       </c>
       <c r="L13">
-        <v>1.006602123057727</v>
+        <v>1.041151164091058</v>
       </c>
       <c r="M13">
-        <v>0.921527426935016</v>
+        <v>1.039987295771566</v>
       </c>
       <c r="N13">
-        <v>1.013443702140207</v>
+        <v>1.047030764117277</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9827905156939715</v>
+        <v>1.039150360905458</v>
       </c>
       <c r="D14">
-        <v>1.003338496357948</v>
+        <v>1.042371117297857</v>
       </c>
       <c r="E14">
-        <v>0.9924117106195792</v>
+        <v>1.037735477705993</v>
       </c>
       <c r="F14">
-        <v>0.9074306076140662</v>
+        <v>1.036802211006189</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031422691799798</v>
+        <v>1.04053517943431</v>
       </c>
       <c r="J14">
-        <v>1.012933883477594</v>
+        <v>1.045696030044833</v>
       </c>
       <c r="K14">
-        <v>1.018214613572845</v>
+        <v>1.045918456404194</v>
       </c>
       <c r="L14">
-        <v>1.007495322794863</v>
+        <v>1.041299873137861</v>
       </c>
       <c r="M14">
-        <v>0.9243579096618809</v>
+        <v>1.040370060691634</v>
       </c>
       <c r="N14">
-        <v>1.014372365777272</v>
+        <v>1.047181038350508</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9835846437426635</v>
+        <v>1.039280384845491</v>
       </c>
       <c r="D15">
-        <v>1.003963626368136</v>
+        <v>1.04247416524852</v>
       </c>
       <c r="E15">
-        <v>0.9930606781597759</v>
+        <v>1.037846943494046</v>
       </c>
       <c r="F15">
-        <v>0.9093009950398251</v>
+        <v>1.03705828621373</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031776782455015</v>
+        <v>1.040581775534335</v>
       </c>
       <c r="J15">
-        <v>1.01350130217003</v>
+        <v>1.045788450489398</v>
       </c>
       <c r="K15">
-        <v>1.018739665329435</v>
+        <v>1.046001766747454</v>
       </c>
       <c r="L15">
-        <v>1.008041994456983</v>
+        <v>1.041391467521229</v>
       </c>
       <c r="M15">
-        <v>0.9260802958212013</v>
+        <v>1.040605711146408</v>
       </c>
       <c r="N15">
-        <v>1.014940590269336</v>
+        <v>1.047273590042704</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.98813215813831</v>
+        <v>1.040036793734937</v>
       </c>
       <c r="D16">
-        <v>1.007542641444313</v>
+        <v>1.04307357018995</v>
       </c>
       <c r="E16">
-        <v>0.9967797222390764</v>
+        <v>1.038495486355332</v>
       </c>
       <c r="F16">
-        <v>0.919855663826551</v>
+        <v>1.038546063659732</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033793294883544</v>
+        <v>1.040852218906912</v>
       </c>
       <c r="J16">
-        <v>1.016746360403012</v>
+        <v>1.046325813129232</v>
       </c>
       <c r="K16">
-        <v>1.021740752005402</v>
+        <v>1.046486061232569</v>
       </c>
       <c r="L16">
-        <v>1.011170514726132</v>
+        <v>1.04192412867485</v>
       </c>
       <c r="M16">
-        <v>0.9357987202064534</v>
+        <v>1.041974526687161</v>
       </c>
       <c r="N16">
-        <v>1.018190256857221</v>
+        <v>1.047811715799124</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9909223920970768</v>
+        <v>1.04051093301444</v>
       </c>
       <c r="D17">
-        <v>1.009738106249139</v>
+        <v>1.043449230959015</v>
       </c>
       <c r="E17">
-        <v>0.9990640071604433</v>
+        <v>1.038902095345041</v>
       </c>
       <c r="F17">
-        <v>0.9262082130260847</v>
+        <v>1.039476974052604</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035021346082339</v>
+        <v>1.041021189171301</v>
       </c>
       <c r="J17">
-        <v>1.018733935000848</v>
+        <v>1.046662393021187</v>
       </c>
       <c r="K17">
-        <v>1.023577518737238</v>
+        <v>1.046789314475613</v>
       </c>
       <c r="L17">
-        <v>1.013088467648905</v>
+        <v>1.042257852905367</v>
       </c>
       <c r="M17">
-        <v>0.9416468471465217</v>
+        <v>1.042830741663812</v>
       </c>
       <c r="N17">
-        <v>1.020180654038964</v>
+        <v>1.048148773673132</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9925286921570473</v>
+        <v>1.040787371101018</v>
       </c>
       <c r="D18">
-        <v>1.011001859566388</v>
+        <v>1.043668229895262</v>
       </c>
       <c r="E18">
-        <v>1.000379871939762</v>
+        <v>1.039139190942457</v>
       </c>
       <c r="F18">
-        <v>0.9298254509900096</v>
+        <v>1.040019132015425</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035725190091594</v>
+        <v>1.041119505767252</v>
       </c>
       <c r="J18">
-        <v>1.019876958560695</v>
+        <v>1.046858537906</v>
       </c>
       <c r="K18">
-        <v>1.024633350923461</v>
+        <v>1.046966006593473</v>
       </c>
       <c r="L18">
-        <v>1.014192051519319</v>
+        <v>1.042452365660362</v>
       </c>
       <c r="M18">
-        <v>0.9449763967266215</v>
+        <v>1.043329303532319</v>
       </c>
       <c r="N18">
-        <v>1.021325300823374</v>
+        <v>1.048345197106179</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9930729136339058</v>
+        <v>1.040881609268708</v>
       </c>
       <c r="D19">
-        <v>1.011430003236152</v>
+        <v>1.043742883044445</v>
       </c>
       <c r="E19">
-        <v>1.000825831754109</v>
+        <v>1.039220022226609</v>
       </c>
       <c r="F19">
-        <v>0.931044617976244</v>
+        <v>1.040203855067459</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035963140848465</v>
+        <v>1.041152988434698</v>
       </c>
       <c r="J19">
-        <v>1.020264022360845</v>
+        <v>1.046925388438598</v>
       </c>
       <c r="K19">
-        <v>1.024990812862133</v>
+        <v>1.047026221872688</v>
       </c>
       <c r="L19">
-        <v>1.014565858496071</v>
+        <v>1.042518665351833</v>
       </c>
       <c r="M19">
-        <v>0.9460985162749898</v>
+        <v>1.043499156686584</v>
       </c>
       <c r="N19">
-        <v>1.021712914298516</v>
+        <v>1.048412142574202</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9906252454768576</v>
+        <v>1.040460074740017</v>
       </c>
       <c r="D20">
-        <v>1.009504315736216</v>
+        <v>1.04340893831127</v>
       </c>
       <c r="E20">
-        <v>0.9988206546113468</v>
+        <v>1.03885847758095</v>
       </c>
       <c r="F20">
-        <v>0.9255359339099106</v>
+        <v>1.039377181972218</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034890893655043</v>
+        <v>1.041003085204974</v>
       </c>
       <c r="J20">
-        <v>1.018522393470765</v>
+        <v>1.046626299468447</v>
       </c>
       <c r="K20">
-        <v>1.023382076897491</v>
+        <v>1.046756797992947</v>
       </c>
       <c r="L20">
-        <v>1.012884273133381</v>
+        <v>1.0422220622666</v>
       </c>
       <c r="M20">
-        <v>0.9410279971143728</v>
+        <v>1.042738966520308</v>
       </c>
       <c r="N20">
-        <v>1.019968812095645</v>
+        <v>1.048112628863407</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9824095990237613</v>
+        <v>1.039088210274041</v>
       </c>
       <c r="D21">
-        <v>1.003038626878933</v>
+        <v>1.042321859747504</v>
       </c>
       <c r="E21">
-        <v>0.9921004732529212</v>
+        <v>1.037682199446267</v>
       </c>
       <c r="F21">
-        <v>0.9065304396881065</v>
+        <v>1.036679774186714</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031252637399675</v>
+        <v>1.040512895689281</v>
       </c>
       <c r="J21">
-        <v>1.012661632871501</v>
+        <v>1.0456518485336</v>
       </c>
       <c r="K21">
-        <v>1.01796265931553</v>
+        <v>1.045878628216936</v>
       </c>
       <c r="L21">
-        <v>1.00723306616666</v>
+        <v>1.041256088321785</v>
       </c>
       <c r="M21">
-        <v>0.9235289543235715</v>
+        <v>1.040257384297462</v>
       </c>
       <c r="N21">
-        <v>1.014099728544092</v>
+        <v>1.047136794096461</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9770239761718706</v>
+        <v>1.038224551562139</v>
       </c>
       <c r="D22">
-        <v>0.9987976546739685</v>
+        <v>1.041637281835917</v>
       </c>
       <c r="E22">
-        <v>0.9877034826215961</v>
+        <v>1.036941945918457</v>
       </c>
       <c r="F22">
-        <v>0.8935831525047768</v>
+        <v>1.034976050398721</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028833486892429</v>
+        <v>1.040202498484389</v>
       </c>
       <c r="J22">
-        <v>1.008806814821626</v>
+        <v>1.045037553109719</v>
       </c>
       <c r="K22">
-        <v>1.014392967948347</v>
+        <v>1.045324744638382</v>
       </c>
       <c r="L22">
-        <v>1.003522536066467</v>
+        <v>1.040647428033963</v>
       </c>
       <c r="M22">
-        <v>0.9116050571709671</v>
+        <v>1.038689130934612</v>
       </c>
       <c r="N22">
-        <v>1.010239436210431</v>
+        <v>1.046521626302618</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9799014810130056</v>
+        <v>1.038682500748249</v>
       </c>
       <c r="D23">
-        <v>1.001063886153959</v>
+        <v>1.042000294118558</v>
       </c>
       <c r="E23">
-        <v>0.9900519673359339</v>
+        <v>1.037334434179749</v>
       </c>
       <c r="F23">
-        <v>0.9005532097859059</v>
+        <v>1.035879977127927</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03012950372037</v>
+        <v>1.040367255272969</v>
       </c>
       <c r="J23">
-        <v>1.010867729015407</v>
+        <v>1.045363357689439</v>
       </c>
       <c r="K23">
-        <v>1.016301973086228</v>
+        <v>1.045618535443388</v>
       </c>
       <c r="L23">
-        <v>1.005505658385068</v>
+        <v>1.040970216222117</v>
       </c>
       <c r="M23">
-        <v>0.9180243532415258</v>
+        <v>1.039521262816038</v>
       </c>
       <c r="N23">
-        <v>1.012303277138759</v>
+        <v>1.046847893562211</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9907595784495957</v>
+        <v>1.040483055774103</v>
       </c>
       <c r="D24">
-        <v>1.009610007352524</v>
+        <v>1.043427145188163</v>
       </c>
       <c r="E24">
-        <v>0.9989306659722604</v>
+        <v>1.03887818679552</v>
       </c>
       <c r="F24">
-        <v>0.9258399781216623</v>
+        <v>1.039422276269282</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034949877793613</v>
+        <v>1.041011266352495</v>
       </c>
       <c r="J24">
-        <v>1.018618030104789</v>
+        <v>1.04664260913681</v>
       </c>
       <c r="K24">
-        <v>1.023470436395063</v>
+        <v>1.046771491380226</v>
       </c>
       <c r="L24">
-        <v>1.012976586373919</v>
+        <v>1.042238234957595</v>
       </c>
       <c r="M24">
-        <v>0.9413078790069747</v>
+        <v>1.042780438393847</v>
       </c>
       <c r="N24">
-        <v>1.020064584544659</v>
+        <v>1.048128961693369</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.002536340406538</v>
+        <v>1.042567837222401</v>
       </c>
       <c r="D25">
-        <v>1.01887364410498</v>
+        <v>1.045078325888216</v>
       </c>
       <c r="E25">
-        <v>1.00859203953255</v>
+        <v>1.040666793214606</v>
       </c>
       <c r="F25">
-        <v>0.9517687273220722</v>
+        <v>1.043500656195772</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040059617154864</v>
+        <v>1.041749167751961</v>
       </c>
       <c r="J25">
-        <v>1.026978647037012</v>
+        <v>1.048120201144874</v>
       </c>
       <c r="K25">
-        <v>1.031185869404931</v>
+        <v>1.048101978709529</v>
       </c>
       <c r="L25">
-        <v>1.02105842345279</v>
+        <v>1.043704105692111</v>
       </c>
       <c r="M25">
-        <v>0.965164953359382</v>
+        <v>1.046529179552545</v>
       </c>
       <c r="N25">
-        <v>1.028437074511902</v>
+        <v>1.049608652051567</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_176/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_176/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.044227090051403</v>
+        <v>1.011380160627587</v>
       </c>
       <c r="D2">
-        <v>1.046391740782104</v>
+        <v>1.025828486613447</v>
       </c>
       <c r="E2">
-        <v>1.042091236798147</v>
+        <v>1.015869834115037</v>
       </c>
       <c r="F2">
-        <v>1.046729152420632</v>
+        <v>0.9704162039008654</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042330235191239</v>
+        <v>1.04381744111593</v>
       </c>
       <c r="J2">
-        <v>1.049293306182361</v>
+        <v>1.033225740314064</v>
       </c>
       <c r="K2">
-        <v>1.049157306662782</v>
+        <v>1.036939345165264</v>
       </c>
       <c r="L2">
-        <v>1.044868904457935</v>
+        <v>1.027112417177105</v>
       </c>
       <c r="M2">
-        <v>1.049493773375442</v>
+        <v>0.9823036757184895</v>
       </c>
       <c r="N2">
-        <v>1.050783423032765</v>
+        <v>1.034693039377958</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.045429885780342</v>
+        <v>1.017527026903581</v>
       </c>
       <c r="D3">
-        <v>1.04734340325694</v>
+        <v>1.030661939684197</v>
       </c>
       <c r="E3">
-        <v>1.043124335188844</v>
+        <v>1.02094002822151</v>
       </c>
       <c r="F3">
-        <v>1.049059953381884</v>
+        <v>0.9830251839548924</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042747866469422</v>
+        <v>1.04638830961843</v>
       </c>
       <c r="J3">
-        <v>1.050142017139511</v>
+        <v>1.037551029414737</v>
       </c>
       <c r="K3">
-        <v>1.049920238418817</v>
+        <v>1.040916969240578</v>
       </c>
       <c r="L3">
-        <v>1.045712180833857</v>
+        <v>1.031311808765406</v>
       </c>
       <c r="M3">
-        <v>1.051632336226778</v>
+        <v>0.9938799691786119</v>
       </c>
       <c r="N3">
-        <v>1.051633339256823</v>
+        <v>1.039024470885273</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.046207295623237</v>
+        <v>1.02138943355083</v>
       </c>
       <c r="D4">
-        <v>1.047958293717829</v>
+        <v>1.033698872596282</v>
       </c>
       <c r="E4">
-        <v>1.043792298178111</v>
+        <v>1.024130973607959</v>
       </c>
       <c r="F4">
-        <v>1.050562202015509</v>
+        <v>0.9908157427775043</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043016144008523</v>
+        <v>1.047985896242857</v>
       </c>
       <c r="J4">
-        <v>1.050689794832782</v>
+        <v>1.040261381560498</v>
       </c>
       <c r="K4">
-        <v>1.050412388574341</v>
+        <v>1.04340690742351</v>
       </c>
       <c r="L4">
-        <v>1.046256715367234</v>
+        <v>1.033946627765254</v>
       </c>
       <c r="M4">
-        <v>1.053009889743201</v>
+        <v>1.001026292317181</v>
       </c>
       <c r="N4">
-        <v>1.052181894857248</v>
+        <v>1.041738672041962</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.046533912456415</v>
+        <v>1.022987229940893</v>
       </c>
       <c r="D5">
-        <v>1.048216581630115</v>
+        <v>1.034955140325798</v>
       </c>
       <c r="E5">
-        <v>1.044072988119318</v>
+        <v>1.025452163205635</v>
       </c>
       <c r="F5">
-        <v>1.051192362594497</v>
+        <v>0.9940105199812505</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043128462006152</v>
+        <v>1.048642638896307</v>
       </c>
       <c r="J5">
-        <v>1.050919749873429</v>
+        <v>1.041380835483461</v>
       </c>
       <c r="K5">
-        <v>1.050618928286177</v>
+        <v>1.04443472984869</v>
       </c>
       <c r="L5">
-        <v>1.04648537204913</v>
+        <v>1.035035659255473</v>
       </c>
       <c r="M5">
-        <v>1.053587553287666</v>
+        <v>1.003955344247297</v>
       </c>
       <c r="N5">
-        <v>1.05241217646043</v>
+        <v>1.042859715717899</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.046588740887692</v>
+        <v>1.023254027679114</v>
       </c>
       <c r="D6">
-        <v>1.048259936963423</v>
+        <v>1.035164907100257</v>
       </c>
       <c r="E6">
-        <v>1.044120110144567</v>
+        <v>1.025672840385154</v>
       </c>
       <c r="F6">
-        <v>1.05129808916912</v>
+        <v>0.9945424301853502</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04314729345418</v>
+        <v>1.048752060440085</v>
       </c>
       <c r="J6">
-        <v>1.050958341038499</v>
+        <v>1.041567657325675</v>
       </c>
       <c r="K6">
-        <v>1.050653586179627</v>
+        <v>1.044606225159691</v>
       </c>
       <c r="L6">
-        <v>1.046523749018524</v>
+        <v>1.035217448768409</v>
       </c>
       <c r="M6">
-        <v>1.053684460900404</v>
+        <v>1.004442921159037</v>
       </c>
       <c r="N6">
-        <v>1.052450822429381</v>
+        <v>1.043046802868558</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.046211660697682</v>
+        <v>1.021410883416847</v>
       </c>
       <c r="D7">
-        <v>1.047961745802171</v>
+        <v>1.033715737754367</v>
       </c>
       <c r="E7">
-        <v>1.043796049244693</v>
+        <v>1.024148705592043</v>
       </c>
       <c r="F7">
-        <v>1.050570627644511</v>
+        <v>0.9908587378801733</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043017646633726</v>
+        <v>1.047994729033822</v>
       </c>
       <c r="J7">
-        <v>1.050692868798009</v>
+        <v>1.040276416784828</v>
       </c>
       <c r="K7">
-        <v>1.050415149778985</v>
+        <v>1.043420714288543</v>
       </c>
       <c r="L7">
-        <v>1.046259771728579</v>
+        <v>1.033961251359282</v>
       </c>
       <c r="M7">
-        <v>1.05301761420295</v>
+        <v>1.001065717464134</v>
       </c>
       <c r="N7">
-        <v>1.052184973187859</v>
+        <v>1.041753728618036</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.044633765173786</v>
+        <v>1.013482342887428</v>
       </c>
       <c r="D8">
-        <v>1.046713547574071</v>
+        <v>1.027481530927703</v>
       </c>
       <c r="E8">
-        <v>1.042440486860529</v>
+        <v>1.017602699340078</v>
       </c>
       <c r="F8">
-        <v>1.047518108430264</v>
+        <v>0.9747587945536887</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042471782730781</v>
+        <v>1.044700509832706</v>
       </c>
       <c r="J8">
-        <v>1.049580422862132</v>
+        <v>1.034706550875242</v>
       </c>
       <c r="K8">
-        <v>1.049415459168707</v>
+        <v>1.03830168255409</v>
       </c>
       <c r="L8">
-        <v>1.045154127660173</v>
+        <v>1.028549395253151</v>
       </c>
       <c r="M8">
-        <v>1.050217823162451</v>
+        <v>0.9862918886471326</v>
       </c>
       <c r="N8">
-        <v>1.051070947451153</v>
+        <v>1.036175952859985</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.041846382980668</v>
+        <v>0.9985493534535951</v>
       </c>
       <c r="D9">
-        <v>1.044507036419624</v>
+        <v>1.015737862186363</v>
       </c>
       <c r="E9">
-        <v>1.040047689393825</v>
+        <v>1.005317438024366</v>
       </c>
       <c r="F9">
-        <v>1.042092080690332</v>
+        <v>0.9431428381487497</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041494777817012</v>
+        <v>1.038343226837253</v>
       </c>
       <c r="J9">
-        <v>1.047609317860638</v>
+        <v>1.02415344199248</v>
       </c>
       <c r="K9">
-        <v>1.047642110614726</v>
+        <v>1.028580661521913</v>
       </c>
       <c r="L9">
-        <v>1.043197119379714</v>
+        <v>1.01832482862191</v>
       </c>
       <c r="M9">
-        <v>1.045234912552862</v>
+        <v>0.9572310538681792</v>
       </c>
       <c r="N9">
-        <v>1.049097043254469</v>
+        <v>1.025607857352151</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.039983195159899</v>
+        <v>0.9878138792617638</v>
       </c>
       <c r="D10">
-        <v>1.043031100895397</v>
+        <v>1.007292184351986</v>
       </c>
       <c r="E10">
-        <v>1.038449525719662</v>
+        <v>0.9965192721793956</v>
       </c>
       <c r="F10">
-        <v>1.038440748977858</v>
+        <v>0.9191252576953473</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040833090960958</v>
+        <v>1.033652770591037</v>
       </c>
       <c r="J10">
-        <v>1.046287752385722</v>
+        <v>1.016519471599246</v>
       </c>
       <c r="K10">
-        <v>1.046451764845028</v>
+        <v>1.021531012653003</v>
       </c>
       <c r="L10">
-        <v>1.041886395196169</v>
+        <v>1.010951657923454</v>
       </c>
       <c r="M10">
-        <v>1.041877649649973</v>
+        <v>0.9351262521789636</v>
       </c>
       <c r="N10">
-        <v>1.047773601004992</v>
+        <v>1.01796304584533</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.039175181836479</v>
+        <v>0.9829424004073758</v>
       </c>
       <c r="D11">
-        <v>1.042390788923776</v>
+        <v>1.003458061895497</v>
       </c>
       <c r="E11">
-        <v>1.037756755607229</v>
+        <v>0.9925358209207857</v>
       </c>
       <c r="F11">
-        <v>1.036851102038168</v>
+        <v>0.9077889896341252</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040544076829087</v>
+        <v>1.03149046054637</v>
       </c>
       <c r="J11">
-        <v>1.045713673772669</v>
+        <v>1.013042424978041</v>
       </c>
       <c r="K11">
-        <v>1.04593436133139</v>
+        <v>1.018315057562777</v>
       </c>
       <c r="L11">
-        <v>1.041317358771514</v>
+        <v>1.007599887012296</v>
       </c>
       <c r="M11">
-        <v>1.040415053281613</v>
+        <v>0.9246879370520322</v>
       </c>
       <c r="N11">
-        <v>1.047198707134462</v>
+        <v>1.0144810614191</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.038874857807975</v>
+        <v>0.9810953480160793</v>
       </c>
       <c r="D12">
-        <v>1.042152760780297</v>
+        <v>1.002003926015548</v>
       </c>
       <c r="E12">
-        <v>1.037499312621093</v>
+        <v>0.9910268828901865</v>
       </c>
       <c r="F12">
-        <v>1.036259299727287</v>
+        <v>0.9034093863312127</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040436344945706</v>
+        <v>1.030664861991106</v>
       </c>
       <c r="J12">
-        <v>1.045500155885091</v>
+        <v>1.011721909940952</v>
       </c>
       <c r="K12">
-        <v>1.045741873661718</v>
+        <v>1.017092834405946</v>
       </c>
       <c r="L12">
-        <v>1.04110576650697</v>
+        <v>1.006328036720475</v>
       </c>
       <c r="M12">
-        <v>1.039870403601307</v>
+        <v>0.9206547337906668</v>
       </c>
       <c r="N12">
-        <v>1.046984886026991</v>
+        <v>1.013158671099193</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.038939287104717</v>
+        <v>0.981493322556045</v>
       </c>
       <c r="D13">
-        <v>1.042203827189371</v>
+        <v>1.002317262371363</v>
       </c>
       <c r="E13">
-        <v>1.037554540388417</v>
+        <v>0.9913519408993643</v>
       </c>
       <c r="F13">
-        <v>1.03638630455214</v>
+        <v>0.9043570122166977</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040459471017984</v>
+        <v>1.0308430213263</v>
       </c>
       <c r="J13">
-        <v>1.045545968915618</v>
+        <v>1.012006536779209</v>
       </c>
       <c r="K13">
-        <v>1.045783176606288</v>
+        <v>1.017356316349402</v>
       </c>
       <c r="L13">
-        <v>1.041151164091058</v>
+        <v>1.006602123057728</v>
       </c>
       <c r="M13">
-        <v>1.039987295771566</v>
+        <v>0.9215274269350182</v>
       </c>
       <c r="N13">
-        <v>1.047030764117277</v>
+        <v>1.013443702140209</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.039150360905458</v>
+        <v>0.9827905156939695</v>
       </c>
       <c r="D14">
-        <v>1.042371117297857</v>
+        <v>1.003338496357946</v>
       </c>
       <c r="E14">
-        <v>1.037735477705993</v>
+        <v>0.9924117106195771</v>
       </c>
       <c r="F14">
-        <v>1.036802211006189</v>
+        <v>0.9074306076140647</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04053517943431</v>
+        <v>1.031422691799797</v>
       </c>
       <c r="J14">
-        <v>1.045696030044833</v>
+        <v>1.012933883477592</v>
       </c>
       <c r="K14">
-        <v>1.045918456404194</v>
+        <v>1.018214613572844</v>
       </c>
       <c r="L14">
-        <v>1.041299873137861</v>
+        <v>1.007495322794861</v>
       </c>
       <c r="M14">
-        <v>1.040370060691634</v>
+        <v>0.9243579096618791</v>
       </c>
       <c r="N14">
-        <v>1.047181038350508</v>
+        <v>1.01437236577727</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.039280384845491</v>
+        <v>0.9835846437426626</v>
       </c>
       <c r="D15">
-        <v>1.04247416524852</v>
+        <v>1.003963626368135</v>
       </c>
       <c r="E15">
-        <v>1.037846943494046</v>
+        <v>0.9930606781597749</v>
       </c>
       <c r="F15">
-        <v>1.03705828621373</v>
+        <v>0.9093009950398243</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040581775534335</v>
+        <v>1.031776782455015</v>
       </c>
       <c r="J15">
-        <v>1.045788450489398</v>
+        <v>1.013501302170029</v>
       </c>
       <c r="K15">
-        <v>1.046001766747454</v>
+        <v>1.018739665329434</v>
       </c>
       <c r="L15">
-        <v>1.041391467521229</v>
+        <v>1.008041994456982</v>
       </c>
       <c r="M15">
-        <v>1.040605711146408</v>
+        <v>0.9260802958212007</v>
       </c>
       <c r="N15">
-        <v>1.047273590042704</v>
+        <v>1.014940590269335</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.040036793734937</v>
+        <v>0.9881321581383098</v>
       </c>
       <c r="D16">
-        <v>1.04307357018995</v>
+        <v>1.007542641444313</v>
       </c>
       <c r="E16">
-        <v>1.038495486355332</v>
+        <v>0.9967797222390763</v>
       </c>
       <c r="F16">
-        <v>1.038546063659732</v>
+        <v>0.9198556638265513</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040852218906912</v>
+        <v>1.033793294883544</v>
       </c>
       <c r="J16">
-        <v>1.046325813129232</v>
+        <v>1.016746360403012</v>
       </c>
       <c r="K16">
-        <v>1.046486061232569</v>
+        <v>1.021740752005402</v>
       </c>
       <c r="L16">
-        <v>1.04192412867485</v>
+        <v>1.011170514726132</v>
       </c>
       <c r="M16">
-        <v>1.041974526687161</v>
+        <v>0.9357987202064534</v>
       </c>
       <c r="N16">
-        <v>1.047811715799124</v>
+        <v>1.018190256857221</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.04051093301444</v>
+        <v>0.9909223920970771</v>
       </c>
       <c r="D17">
-        <v>1.043449230959015</v>
+        <v>1.009738106249139</v>
       </c>
       <c r="E17">
-        <v>1.038902095345041</v>
+        <v>0.9990640071604434</v>
       </c>
       <c r="F17">
-        <v>1.039476974052604</v>
+        <v>0.9262082130260854</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041021189171301</v>
+        <v>1.035021346082339</v>
       </c>
       <c r="J17">
-        <v>1.046662393021187</v>
+        <v>1.018733935000848</v>
       </c>
       <c r="K17">
-        <v>1.046789314475613</v>
+        <v>1.023577518737238</v>
       </c>
       <c r="L17">
-        <v>1.042257852905367</v>
+        <v>1.013088467648906</v>
       </c>
       <c r="M17">
-        <v>1.042830741663812</v>
+        <v>0.9416468471465222</v>
       </c>
       <c r="N17">
-        <v>1.048148773673132</v>
+        <v>1.020180654038965</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.040787371101018</v>
+        <v>0.9925286921570464</v>
       </c>
       <c r="D18">
-        <v>1.043668229895262</v>
+        <v>1.011001859566387</v>
       </c>
       <c r="E18">
-        <v>1.039139190942457</v>
+        <v>1.00037987193976</v>
       </c>
       <c r="F18">
-        <v>1.040019132015425</v>
+        <v>0.9298254509900089</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041119505767252</v>
+        <v>1.035725190091593</v>
       </c>
       <c r="J18">
-        <v>1.046858537906</v>
+        <v>1.019876958560694</v>
       </c>
       <c r="K18">
-        <v>1.046966006593473</v>
+        <v>1.02463335092346</v>
       </c>
       <c r="L18">
-        <v>1.042452365660362</v>
+        <v>1.014192051519318</v>
       </c>
       <c r="M18">
-        <v>1.043329303532319</v>
+        <v>0.9449763967266207</v>
       </c>
       <c r="N18">
-        <v>1.048345197106179</v>
+        <v>1.021325300823373</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.040881609268708</v>
+        <v>0.9930729136339048</v>
       </c>
       <c r="D19">
-        <v>1.043742883044445</v>
+        <v>1.011430003236151</v>
       </c>
       <c r="E19">
-        <v>1.039220022226609</v>
+        <v>1.000825831754108</v>
       </c>
       <c r="F19">
-        <v>1.040203855067459</v>
+        <v>0.9310446179762426</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041152988434698</v>
+        <v>1.035963140848464</v>
       </c>
       <c r="J19">
-        <v>1.046925388438598</v>
+        <v>1.020264022360844</v>
       </c>
       <c r="K19">
-        <v>1.047026221872688</v>
+        <v>1.024990812862132</v>
       </c>
       <c r="L19">
-        <v>1.042518665351833</v>
+        <v>1.01456585849607</v>
       </c>
       <c r="M19">
-        <v>1.043499156686584</v>
+        <v>0.9460985162749883</v>
       </c>
       <c r="N19">
-        <v>1.048412142574202</v>
+        <v>1.021712914298515</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.040460074740017</v>
+        <v>0.9906252454768555</v>
       </c>
       <c r="D20">
-        <v>1.04340893831127</v>
+        <v>1.009504315736214</v>
       </c>
       <c r="E20">
-        <v>1.03885847758095</v>
+        <v>0.9988206546113445</v>
       </c>
       <c r="F20">
-        <v>1.039377181972218</v>
+        <v>0.9255359339099106</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041003085204974</v>
+        <v>1.034890893655042</v>
       </c>
       <c r="J20">
-        <v>1.046626299468447</v>
+        <v>1.018522393470763</v>
       </c>
       <c r="K20">
-        <v>1.046756797992947</v>
+        <v>1.023382076897489</v>
       </c>
       <c r="L20">
-        <v>1.0422220622666</v>
+        <v>1.012884273133379</v>
       </c>
       <c r="M20">
-        <v>1.042738966520308</v>
+        <v>0.9410279971143729</v>
       </c>
       <c r="N20">
-        <v>1.048112628863407</v>
+        <v>1.019968812095643</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.039088210274041</v>
+        <v>0.9824095990237623</v>
       </c>
       <c r="D21">
-        <v>1.042321859747504</v>
+        <v>1.003038626878934</v>
       </c>
       <c r="E21">
-        <v>1.037682199446267</v>
+        <v>0.9921004732529219</v>
       </c>
       <c r="F21">
-        <v>1.036679774186714</v>
+        <v>0.9065304396881064</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040512895689281</v>
+        <v>1.031252637399675</v>
       </c>
       <c r="J21">
-        <v>1.0456518485336</v>
+        <v>1.012661632871502</v>
       </c>
       <c r="K21">
-        <v>1.045878628216936</v>
+        <v>1.017962659315531</v>
       </c>
       <c r="L21">
-        <v>1.041256088321785</v>
+        <v>1.007233066166661</v>
       </c>
       <c r="M21">
-        <v>1.040257384297462</v>
+        <v>0.9235289543235712</v>
       </c>
       <c r="N21">
-        <v>1.047136794096461</v>
+        <v>1.014099728544093</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.038224551562139</v>
+        <v>0.9770239761718711</v>
       </c>
       <c r="D22">
-        <v>1.041637281835917</v>
+        <v>0.998797654673969</v>
       </c>
       <c r="E22">
-        <v>1.036941945918457</v>
+        <v>0.9877034826215965</v>
       </c>
       <c r="F22">
-        <v>1.034976050398721</v>
+        <v>0.8935831525047769</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040202498484389</v>
+        <v>1.028833486892429</v>
       </c>
       <c r="J22">
-        <v>1.045037553109719</v>
+        <v>1.008806814821626</v>
       </c>
       <c r="K22">
-        <v>1.045324744638382</v>
+        <v>1.014392967948348</v>
       </c>
       <c r="L22">
-        <v>1.040647428033963</v>
+        <v>1.003522536066468</v>
       </c>
       <c r="M22">
-        <v>1.038689130934612</v>
+        <v>0.9116050571709673</v>
       </c>
       <c r="N22">
-        <v>1.046521626302618</v>
+        <v>1.010239436210432</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.038682500748249</v>
+        <v>0.9799014810130057</v>
       </c>
       <c r="D23">
-        <v>1.042000294118558</v>
+        <v>1.001063886153959</v>
       </c>
       <c r="E23">
-        <v>1.037334434179749</v>
+        <v>0.9900519673359336</v>
       </c>
       <c r="F23">
-        <v>1.035879977127927</v>
+        <v>0.9005532097859051</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040367255272969</v>
+        <v>1.03012950372037</v>
       </c>
       <c r="J23">
-        <v>1.045363357689439</v>
+        <v>1.010867729015408</v>
       </c>
       <c r="K23">
-        <v>1.045618535443388</v>
+        <v>1.016301973086228</v>
       </c>
       <c r="L23">
-        <v>1.040970216222117</v>
+        <v>1.005505658385068</v>
       </c>
       <c r="M23">
-        <v>1.039521262816038</v>
+        <v>0.9180243532415251</v>
       </c>
       <c r="N23">
-        <v>1.046847893562211</v>
+        <v>1.012303277138759</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.040483055774103</v>
+        <v>0.9907595784495938</v>
       </c>
       <c r="D24">
-        <v>1.043427145188163</v>
+        <v>1.009610007352523</v>
       </c>
       <c r="E24">
-        <v>1.03887818679552</v>
+        <v>0.9989306659722584</v>
       </c>
       <c r="F24">
-        <v>1.039422276269282</v>
+        <v>0.92583997812166</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041011266352495</v>
+        <v>1.034949877793612</v>
       </c>
       <c r="J24">
-        <v>1.04664260913681</v>
+        <v>1.018618030104787</v>
       </c>
       <c r="K24">
-        <v>1.046771491380226</v>
+        <v>1.023470436395062</v>
       </c>
       <c r="L24">
-        <v>1.042238234957595</v>
+        <v>1.012976586373917</v>
       </c>
       <c r="M24">
-        <v>1.042780438393847</v>
+        <v>0.9413078790069724</v>
       </c>
       <c r="N24">
-        <v>1.048128961693369</v>
+        <v>1.020064584544658</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.042567837222401</v>
+        <v>1.002536340406537</v>
       </c>
       <c r="D25">
-        <v>1.045078325888216</v>
+        <v>1.018873644104979</v>
       </c>
       <c r="E25">
-        <v>1.040666793214606</v>
+        <v>1.008592039532549</v>
       </c>
       <c r="F25">
-        <v>1.043500656195772</v>
+        <v>0.9517687273220724</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041749167751961</v>
+        <v>1.040059617154864</v>
       </c>
       <c r="J25">
-        <v>1.048120201144874</v>
+        <v>1.026978647037012</v>
       </c>
       <c r="K25">
-        <v>1.048101978709529</v>
+        <v>1.03118586940493</v>
       </c>
       <c r="L25">
-        <v>1.043704105692111</v>
+        <v>1.02105842345279</v>
       </c>
       <c r="M25">
-        <v>1.046529179552545</v>
+        <v>0.9651649533593823</v>
       </c>
       <c r="N25">
-        <v>1.049608652051567</v>
+        <v>1.028437074511901</v>
       </c>
     </row>
   </sheetData>
